--- a/flows/DBC_fund_flow_data.xlsx
+++ b/flows/DBC_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4545"/>
+  <dimension ref="A1:B4563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45885,6 +45885,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4546">
+      <c r="A4546" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4547">
+      <c r="A4547" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4548">
+      <c r="A4548" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4549">
+      <c r="A4549" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4550">
+      <c r="A4550" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4550" t="n">
+        <v>-6.5865</v>
+      </c>
+    </row>
+    <row r="4551">
+      <c r="A4551" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4552">
+      <c r="A4552" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4553">
+      <c r="A4553" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4554">
+      <c r="A4554" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4555">
+      <c r="A4555" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4555" t="n">
+        <v>-8.8668</v>
+      </c>
+    </row>
+    <row r="4556">
+      <c r="A4556" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4557">
+      <c r="A4557" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4557" t="n">
+        <v>-5.549</v>
+      </c>
+    </row>
+    <row r="4558">
+      <c r="A4558" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4558" t="n">
+        <v>-4.4524</v>
+      </c>
+    </row>
+    <row r="4559">
+      <c r="A4559" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4560">
+      <c r="A4560" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4560" t="n">
+        <v>-6.7044</v>
+      </c>
+    </row>
+    <row r="4561">
+      <c r="A4561" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4562">
+      <c r="A4562" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4563">
+      <c r="A4563" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4563" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
